--- a/Analysis/AticAtac/Data/AASounds.xlsx
+++ b/Analysis/AticAtac/Data/AASounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IC514955\Documents\Development\FractalStudios\GitHub\ZxSpectrum\Analysis\AticAtac\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B7205-896F-4E54-A3AF-9C222CA6FC49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C9EA11-19C7-445C-8389-F294D566A489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2715" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="350">
   <si>
     <t>beep</t>
   </si>
@@ -1078,6 +1078,9 @@
   </si>
   <si>
     <t>Okay</t>
+  </si>
+  <si>
+    <t>Loop</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1090,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,6 +1115,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1224,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1301,7 +1313,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1315,21 +1326,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1356,6 +1352,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1672,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S138" sqref="S138"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,21 +1732,21 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -1837,10 +1854,10 @@
       <c r="Q5" s="23">
         <v>1</v>
       </c>
-      <c r="R5" s="65" t="s">
+      <c r="R5" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S5" s="52"/>
+      <c r="S5" s="51"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
@@ -1897,10 +1914,10 @@
       <c r="Q6" s="23">
         <v>1</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="R6" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S6" s="52"/>
+      <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1955,10 +1972,10 @@
       <c r="Q7" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="R7" s="65" t="s">
+      <c r="R7" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S7" s="52" t="s">
+      <c r="S7" s="51" t="s">
         <v>348</v>
       </c>
     </row>
@@ -2015,10 +2032,10 @@
       <c r="Q8" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="R8" s="65" t="s">
+      <c r="R8" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="51" t="s">
         <v>348</v>
       </c>
     </row>
@@ -2072,10 +2089,10 @@
       <c r="Q9" s="28">
         <v>6</v>
       </c>
-      <c r="R9" s="65" t="s">
+      <c r="R9" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="51" t="s">
         <v>348</v>
       </c>
     </row>
@@ -2093,8 +2110,8 @@
         <v>177</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2112,7 +2129,7 @@
       <c r="G11" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="54" t="s">
         <v>193</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2148,10 +2165,10 @@
       <c r="Q11" s="23">
         <v>1</v>
       </c>
-      <c r="R11" s="65" t="s">
+      <c r="R11" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S11" s="52"/>
+      <c r="S11" s="51"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -2200,8 +2217,8 @@
       <c r="Q12" s="23">
         <v>1</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="52"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="51"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -2250,8 +2267,8 @@
       <c r="Q13" s="23">
         <v>1</v>
       </c>
-      <c r="R13" s="64"/>
-      <c r="S13" s="52"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="51"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
@@ -2298,8 +2315,8 @@
       <c r="Q14" s="23">
         <v>1</v>
       </c>
-      <c r="R14" s="64"/>
-      <c r="S14" s="52"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="51"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -2348,8 +2365,8 @@
       <c r="Q15" s="23">
         <v>1</v>
       </c>
-      <c r="R15" s="64"/>
-      <c r="S15" s="52"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="51"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -2398,8 +2415,8 @@
       <c r="Q16" s="23">
         <v>1</v>
       </c>
-      <c r="R16" s="64"/>
-      <c r="S16" s="52"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="51"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -2448,8 +2465,8 @@
       <c r="Q17" s="23">
         <v>1</v>
       </c>
-      <c r="R17" s="64"/>
-      <c r="S17" s="52"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -2496,8 +2513,8 @@
       <c r="Q18" s="23">
         <v>1</v>
       </c>
-      <c r="R18" s="64"/>
-      <c r="S18" s="52"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="51"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
@@ -2541,14 +2558,14 @@
       <c r="Q19" s="23">
         <v>1</v>
       </c>
-      <c r="R19" s="64"/>
-      <c r="S19" s="52"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="51"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="52">
         <f>SUM(D7:D13)</f>
         <v>58</v>
       </c>
@@ -2586,8 +2603,8 @@
       <c r="Q20" s="23">
         <v>1</v>
       </c>
-      <c r="R20" s="64"/>
-      <c r="S20" s="52"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="51"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H21" s="8"/>
@@ -2624,8 +2641,8 @@
       <c r="Q21" s="23">
         <v>1</v>
       </c>
-      <c r="R21" s="64"/>
-      <c r="S21" s="52"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="51"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H22" s="8"/>
@@ -2662,8 +2679,8 @@
       <c r="Q22" s="23">
         <v>1</v>
       </c>
-      <c r="R22" s="64"/>
-      <c r="S22" s="52"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="51"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H23" s="8"/>
@@ -2700,8 +2717,8 @@
       <c r="Q23" s="23">
         <v>1</v>
       </c>
-      <c r="R23" s="64"/>
-      <c r="S23" s="52"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="51"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H24" s="8"/>
@@ -2738,8 +2755,8 @@
       <c r="Q24" s="23">
         <v>1</v>
       </c>
-      <c r="R24" s="64"/>
-      <c r="S24" s="52"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="51"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
@@ -2791,8 +2808,8 @@
       <c r="Q25" s="23">
         <v>1</v>
       </c>
-      <c r="R25" s="64"/>
-      <c r="S25" s="52"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="51"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
@@ -2808,6 +2825,10 @@
         <v>263</v>
       </c>
       <c r="H26" s="8"/>
+      <c r="O26" s="71">
+        <f>SUM(O11:O25)</f>
+        <v>68.571428571428569</v>
+      </c>
       <c r="P26" s="41">
         <f>SUM(P11:P25)</f>
         <v>15</v>
@@ -2816,8 +2837,8 @@
         <f>SUM(Q11:Q25)</f>
         <v>15</v>
       </c>
-      <c r="R26" s="66"/>
-      <c r="S26" s="52"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="51"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
@@ -2831,8 +2852,8 @@
         <v>264</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
@@ -2853,7 +2874,7 @@
       <c r="G28" t="s">
         <v>185</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="54" t="s">
         <v>192</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -2889,10 +2910,10 @@
       <c r="Q28" s="23">
         <v>1</v>
       </c>
-      <c r="R28" s="65" t="s">
+      <c r="R28" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S28" s="52" t="s">
+      <c r="S28" s="51" t="s">
         <v>348</v>
       </c>
     </row>
@@ -2944,8 +2965,8 @@
       <c r="Q29" s="23">
         <v>1</v>
       </c>
-      <c r="R29" s="64"/>
-      <c r="S29" s="52"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="51"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
@@ -2995,8 +3016,8 @@
       <c r="Q30" s="23">
         <v>1</v>
       </c>
-      <c r="R30" s="64"/>
-      <c r="S30" s="52"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="51"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
@@ -3047,8 +3068,8 @@
       <c r="Q31" s="23">
         <v>1</v>
       </c>
-      <c r="R31" s="64"/>
-      <c r="S31" s="52"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="51"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
@@ -3099,8 +3120,8 @@
       <c r="Q32" s="23">
         <v>1</v>
       </c>
-      <c r="R32" s="64"/>
-      <c r="S32" s="52"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="51"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
@@ -3151,8 +3172,8 @@
       <c r="Q33" s="23">
         <v>1</v>
       </c>
-      <c r="R33" s="64"/>
-      <c r="S33" s="52"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="51"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
@@ -3202,8 +3223,8 @@
       <c r="Q34" s="23">
         <v>1</v>
       </c>
-      <c r="R34" s="64"/>
-      <c r="S34" s="52"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="51"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
@@ -3251,8 +3272,8 @@
       <c r="Q35" s="23">
         <v>1</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="52"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="51"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
@@ -3302,8 +3323,8 @@
       <c r="Q36" s="23">
         <v>1</v>
       </c>
-      <c r="R36" s="64"/>
-      <c r="S36" s="52"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="51"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
@@ -3320,6 +3341,10 @@
         <v>320</v>
       </c>
       <c r="H37" s="8"/>
+      <c r="O37" s="71">
+        <f>SUM(O28:O36)</f>
+        <v>64.053142857142845</v>
+      </c>
       <c r="P37" s="41">
         <f>SUM(P28:P36)</f>
         <v>9</v>
@@ -3328,8 +3353,8 @@
         <f>SUM(Q28:Q36)</f>
         <v>9</v>
       </c>
-      <c r="R37" s="66"/>
-      <c r="S37" s="52"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="51"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
@@ -3346,8 +3371,8 @@
         <v>319</v>
       </c>
       <c r="H38" s="8"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
@@ -3364,7 +3389,7 @@
       <c r="G39" t="s">
         <v>186</v>
       </c>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="54" t="s">
         <v>232</v>
       </c>
       <c r="I39" s="26" t="s">
@@ -3400,10 +3425,10 @@
       <c r="Q39">
         <v>4</v>
       </c>
-      <c r="R39" s="52" t="s">
+      <c r="R39" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="S39" s="52"/>
+      <c r="S39" s="51"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
@@ -3449,8 +3474,8 @@
       <c r="Q40">
         <v>4</v>
       </c>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
@@ -3490,8 +3515,8 @@
       <c r="Q41">
         <v>4</v>
       </c>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C42" s="23"/>
@@ -3529,8 +3554,8 @@
       <c r="Q42">
         <v>4</v>
       </c>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H43" s="8"/>
@@ -3567,8 +3592,8 @@
       <c r="Q43">
         <v>4</v>
       </c>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H44" s="8"/>
@@ -3605,8 +3630,8 @@
       <c r="Q44">
         <v>4</v>
       </c>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H45" s="8"/>
@@ -3643,8 +3668,8 @@
       <c r="Q45">
         <v>4</v>
       </c>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H46" s="8"/>
@@ -3681,8 +3706,8 @@
       <c r="Q46">
         <v>4</v>
       </c>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H47" s="8"/>
@@ -3719,8 +3744,8 @@
       <c r="Q47">
         <v>4</v>
       </c>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H48" s="8"/>
@@ -3757,8 +3782,8 @@
       <c r="Q48">
         <v>4</v>
       </c>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
     </row>
     <row r="49" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H49" s="8"/>
@@ -3795,8 +3820,8 @@
       <c r="Q49">
         <v>4</v>
       </c>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
     </row>
     <row r="50" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H50" s="8"/>
@@ -3833,8 +3858,8 @@
       <c r="Q50">
         <v>4</v>
       </c>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
     </row>
     <row r="51" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H51" s="8"/>
@@ -3871,8 +3896,8 @@
       <c r="Q51">
         <v>4</v>
       </c>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
     </row>
     <row r="52" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H52" s="8"/>
@@ -3909,8 +3934,8 @@
       <c r="Q52">
         <v>4</v>
       </c>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
     </row>
     <row r="53" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H53" s="8"/>
@@ -3947,8 +3972,8 @@
       <c r="Q53">
         <v>4</v>
       </c>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
     </row>
     <row r="54" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H54" s="8"/>
@@ -3985,8 +4010,8 @@
       <c r="Q54">
         <v>4</v>
       </c>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
     </row>
     <row r="55" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H55" s="8"/>
@@ -4023,8 +4048,8 @@
       <c r="Q55">
         <v>4</v>
       </c>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
     </row>
     <row r="56" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H56" s="8"/>
@@ -4061,11 +4086,15 @@
       <c r="Q56">
         <v>4</v>
       </c>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
     </row>
     <row r="57" spans="8:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H57" s="8"/>
+      <c r="O57" s="71">
+        <f>SUM(O39:O56)</f>
+        <v>241.59085714285712</v>
+      </c>
       <c r="P57" s="41">
         <f>SUM(P39:P56)</f>
         <v>18</v>
@@ -4074,18 +4103,18 @@
         <f>SUM(Q39:Q56)</f>
         <v>72</v>
       </c>
-      <c r="R57" s="66"/>
-      <c r="S57" s="52"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="51"/>
     </row>
     <row r="58" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H58" s="8"/>
       <c r="P58" s="35"/>
       <c r="Q58" s="35"/>
-      <c r="R58" s="66"/>
-      <c r="S58" s="52"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="51"/>
     </row>
     <row r="59" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H59" s="60" t="s">
+      <c r="H59" s="54" t="s">
         <v>233</v>
       </c>
       <c r="I59" s="6" t="s">
@@ -4121,10 +4150,10 @@
       <c r="Q59">
         <v>1</v>
       </c>
-      <c r="R59" s="52" t="s">
+      <c r="R59" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="S59" s="52"/>
+      <c r="S59" s="51"/>
     </row>
     <row r="60" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H60" s="8"/>
@@ -4161,8 +4190,8 @@
       <c r="Q60">
         <v>1</v>
       </c>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
     </row>
     <row r="61" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H61" s="8"/>
@@ -4199,8 +4228,8 @@
       <c r="Q61">
         <v>2</v>
       </c>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
     </row>
     <row r="62" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H62" s="8"/>
@@ -4237,8 +4266,8 @@
       <c r="Q62">
         <v>1</v>
       </c>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
     </row>
     <row r="63" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H63" s="8"/>
@@ -4275,8 +4304,8 @@
       <c r="Q63">
         <v>1</v>
       </c>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
     </row>
     <row r="64" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H64" s="8"/>
@@ -4313,8 +4342,8 @@
       <c r="Q64">
         <v>2</v>
       </c>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
     </row>
     <row r="65" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H65" s="8"/>
@@ -4351,8 +4380,8 @@
       <c r="Q65">
         <v>1</v>
       </c>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
     </row>
     <row r="66" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H66" s="8"/>
@@ -4389,8 +4418,8 @@
       <c r="Q66">
         <v>1</v>
       </c>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
     </row>
     <row r="67" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H67" s="8"/>
@@ -4427,8 +4456,8 @@
       <c r="Q67">
         <v>2</v>
       </c>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
     </row>
     <row r="68" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H68" s="8"/>
@@ -4465,8 +4494,8 @@
       <c r="Q68">
         <v>1</v>
       </c>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
     </row>
     <row r="69" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H69" s="8"/>
@@ -4503,8 +4532,8 @@
       <c r="Q69">
         <v>1</v>
       </c>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
     </row>
     <row r="70" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H70" s="8"/>
@@ -4541,8 +4570,8 @@
       <c r="Q70">
         <v>2</v>
       </c>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
+      <c r="R70" s="51"/>
+      <c r="S70" s="51"/>
     </row>
     <row r="71" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H71" s="8"/>
@@ -4579,8 +4608,8 @@
       <c r="Q71">
         <v>1</v>
       </c>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="51"/>
     </row>
     <row r="72" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H72" s="8"/>
@@ -4617,8 +4646,8 @@
       <c r="Q72">
         <v>1</v>
       </c>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
+      <c r="R72" s="51"/>
+      <c r="S72" s="51"/>
     </row>
     <row r="73" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H73" s="8"/>
@@ -4655,8 +4684,8 @@
       <c r="Q73">
         <v>2</v>
       </c>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
     </row>
     <row r="74" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H74" s="8"/>
@@ -4693,8 +4722,8 @@
       <c r="Q74">
         <v>1</v>
       </c>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
     </row>
     <row r="75" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H75" s="8"/>
@@ -4731,8 +4760,8 @@
       <c r="Q75">
         <v>1</v>
       </c>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
     </row>
     <row r="76" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H76" s="8"/>
@@ -4769,11 +4798,15 @@
       <c r="Q76">
         <v>2</v>
       </c>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
     </row>
     <row r="77" spans="7:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H77" s="8"/>
+      <c r="O77" s="71">
+        <f>SUM(O59:O76)</f>
+        <v>241.59085714285712</v>
+      </c>
       <c r="P77" s="41">
         <f>SUM(P59:P76)</f>
         <v>18</v>
@@ -4782,19 +4815,19 @@
         <f>SUM(Q59:Q76)</f>
         <v>24</v>
       </c>
-      <c r="R77" s="66"/>
-      <c r="S77" s="52"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="51"/>
     </row>
     <row r="78" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H78" s="8"/>
-      <c r="R78" s="52"/>
-      <c r="S78" s="52"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="51"/>
     </row>
     <row r="79" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>187</v>
       </c>
-      <c r="H79" s="60" t="s">
+      <c r="H79" s="54" t="s">
         <v>195</v>
       </c>
       <c r="I79" s="6">
@@ -4830,10 +4863,10 @@
       <c r="Q79">
         <v>1</v>
       </c>
-      <c r="R79" s="52" t="s">
+      <c r="R79" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="S79" s="52" t="s">
+      <c r="S79" s="51" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4872,8 +4905,8 @@
       <c r="Q80">
         <v>1</v>
       </c>
-      <c r="R80" s="52"/>
-      <c r="S80" s="52"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
     </row>
     <row r="81" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H81" s="8"/>
@@ -4910,8 +4943,8 @@
       <c r="Q81">
         <v>1</v>
       </c>
-      <c r="R81" s="52"/>
-      <c r="S81" s="52"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
     </row>
     <row r="82" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H82" s="8"/>
@@ -4948,8 +4981,8 @@
       <c r="Q82">
         <v>1</v>
       </c>
-      <c r="R82" s="52"/>
-      <c r="S82" s="52"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
     </row>
     <row r="83" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H83" s="8"/>
@@ -4986,8 +5019,8 @@
       <c r="Q83">
         <v>1</v>
       </c>
-      <c r="R83" s="52"/>
-      <c r="S83" s="52"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
     </row>
     <row r="84" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H84" s="8"/>
@@ -5024,8 +5057,8 @@
       <c r="Q84">
         <v>1</v>
       </c>
-      <c r="R84" s="52"/>
-      <c r="S84" s="52"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
     </row>
     <row r="85" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H85" s="8"/>
@@ -5062,8 +5095,8 @@
       <c r="Q85">
         <v>1</v>
       </c>
-      <c r="R85" s="52"/>
-      <c r="S85" s="52"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
     </row>
     <row r="86" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H86" s="8"/>
@@ -5100,8 +5133,8 @@
       <c r="Q86">
         <v>1</v>
       </c>
-      <c r="R86" s="52"/>
-      <c r="S86" s="52"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
     </row>
     <row r="87" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H87" s="8"/>
@@ -5138,8 +5171,8 @@
       <c r="Q87">
         <v>1</v>
       </c>
-      <c r="R87" s="52"/>
-      <c r="S87" s="52"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
     </row>
     <row r="88" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H88" s="8"/>
@@ -5176,8 +5209,8 @@
       <c r="Q88">
         <v>1</v>
       </c>
-      <c r="R88" s="52"/>
-      <c r="S88" s="52"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="51"/>
     </row>
     <row r="89" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H89" s="8"/>
@@ -5214,8 +5247,8 @@
       <c r="Q89">
         <v>1</v>
       </c>
-      <c r="R89" s="52"/>
-      <c r="S89" s="52"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
     </row>
     <row r="90" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H90" s="27"/>
@@ -5252,8 +5285,8 @@
       <c r="Q90">
         <v>1</v>
       </c>
-      <c r="R90" s="52"/>
-      <c r="S90" s="52"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="51"/>
     </row>
     <row r="91" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H91" s="8"/>
@@ -5290,8 +5323,8 @@
       <c r="Q91">
         <v>1</v>
       </c>
-      <c r="R91" s="52"/>
-      <c r="S91" s="52"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
     </row>
     <row r="92" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H92" s="27"/>
@@ -5328,8 +5361,8 @@
       <c r="Q92">
         <v>1</v>
       </c>
-      <c r="R92" s="52"/>
-      <c r="S92" s="52"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="51"/>
     </row>
     <row r="93" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H93" s="8"/>
@@ -5366,8 +5399,8 @@
       <c r="Q93">
         <v>1</v>
       </c>
-      <c r="R93" s="52"/>
-      <c r="S93" s="52"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
     </row>
     <row r="94" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H94" s="8"/>
@@ -5404,11 +5437,15 @@
       <c r="Q94">
         <v>1</v>
       </c>
-      <c r="R94" s="52"/>
-      <c r="S94" s="52"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="51"/>
     </row>
     <row r="95" spans="8:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H95" s="8"/>
+      <c r="O95" s="71">
+        <f>SUM(O79:O94)</f>
+        <v>101.66857142857143</v>
+      </c>
       <c r="P95" s="41">
         <f>SUM(P79:P94)</f>
         <v>16</v>
@@ -5417,27 +5454,27 @@
         <f>SUM(Q79:Q94)</f>
         <v>16</v>
       </c>
-      <c r="R95" s="66"/>
-      <c r="S95" s="52"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="51"/>
     </row>
     <row r="96" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H96" s="8"/>
     </row>
     <row r="97" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G97" s="55" t="s">
+      <c r="G97" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="H97" s="55"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="55"/>
-      <c r="R97" s="55"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="66"/>
+      <c r="M97" s="66"/>
+      <c r="N97" s="66"/>
+      <c r="O97" s="66"/>
+      <c r="P97" s="66"/>
+      <c r="Q97" s="66"/>
+      <c r="R97" s="66"/>
     </row>
     <row r="98" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G98" s="29" t="s">
@@ -5481,7 +5518,7 @@
       </c>
     </row>
     <row r="99" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G99" s="15">
+      <c r="G99" s="63">
         <v>9750</v>
       </c>
       <c r="H99" s="8" t="s">
@@ -5520,10 +5557,10 @@
       <c r="Q99">
         <v>15</v>
       </c>
-      <c r="R99" s="65" t="s">
+      <c r="R99" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S99" s="67"/>
+      <c r="S99" s="61"/>
     </row>
     <row r="100" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H100" s="8"/>
@@ -5560,8 +5597,8 @@
       <c r="Q100">
         <v>8</v>
       </c>
-      <c r="R100" s="67"/>
-      <c r="S100" s="67"/>
+      <c r="R100" s="61"/>
+      <c r="S100" s="61"/>
     </row>
     <row r="101" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H101" s="8"/>
@@ -5572,11 +5609,11 @@
       <c r="M101" s="6"/>
       <c r="N101" s="24"/>
       <c r="O101" s="25"/>
-      <c r="R101" s="67"/>
-      <c r="S101" s="67"/>
+      <c r="R101" s="61"/>
+      <c r="S101" s="61"/>
     </row>
     <row r="102" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G102" t="s">
+      <c r="G102" s="14" t="s">
         <v>215</v>
       </c>
       <c r="H102" s="33" t="s">
@@ -5615,14 +5652,17 @@
       <c r="Q102">
         <v>1</v>
       </c>
-      <c r="R102" s="65" t="s">
+      <c r="R102" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S102" s="52" t="s">
+      <c r="S102" s="51" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="103" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G103" s="65" t="s">
+        <v>349</v>
+      </c>
       <c r="H103" s="8"/>
       <c r="I103" s="6">
         <v>8501</v>
@@ -5651,14 +5691,8 @@
         <f t="shared" si="38"/>
         <v>1.0097142857142856</v>
       </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="Q103">
-        <v>1</v>
-      </c>
-      <c r="R103" s="65"/>
-      <c r="S103" s="67"/>
+      <c r="R103" s="59"/>
+      <c r="S103" s="61"/>
     </row>
     <row r="104" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H104" s="8"/>
@@ -5689,14 +5723,8 @@
         <f t="shared" si="38"/>
         <v>5.8857142857142851E-2</v>
       </c>
-      <c r="P104">
-        <v>1</v>
-      </c>
-      <c r="Q104">
-        <v>1</v>
-      </c>
-      <c r="R104" s="65"/>
-      <c r="S104" s="67"/>
+      <c r="R104" s="59"/>
+      <c r="S104" s="61"/>
     </row>
     <row r="105" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H105" s="8"/>
@@ -5727,14 +5755,8 @@
         <f t="shared" si="38"/>
         <v>1.0022857142857142</v>
       </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="Q105">
-        <v>1</v>
-      </c>
-      <c r="R105" s="65"/>
-      <c r="S105" s="67"/>
+      <c r="R105" s="59"/>
+      <c r="S105" s="61"/>
     </row>
     <row r="106" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H106" s="8"/>
@@ -5765,14 +5787,8 @@
         <f t="shared" si="38"/>
         <v>5.1428571428571421E-2</v>
       </c>
-      <c r="P106">
-        <v>1</v>
-      </c>
-      <c r="Q106">
-        <v>1</v>
-      </c>
-      <c r="R106" s="65"/>
-      <c r="S106" s="67"/>
+      <c r="R106" s="59"/>
+      <c r="S106" s="61"/>
     </row>
     <row r="107" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G107" s="22"/>
@@ -5804,14 +5820,8 @@
         <f t="shared" si="38"/>
         <v>0.99485714285714277</v>
       </c>
-      <c r="P107">
-        <v>1</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="R107" s="65"/>
-      <c r="S107" s="67"/>
+      <c r="R107" s="59"/>
+      <c r="S107" s="61"/>
     </row>
     <row r="108" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H108" s="8"/>
@@ -5842,14 +5852,8 @@
         <f t="shared" si="38"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="P108">
-        <v>1</v>
-      </c>
-      <c r="Q108">
-        <v>1</v>
-      </c>
-      <c r="R108" s="65"/>
-      <c r="S108" s="67"/>
+      <c r="R108" s="59"/>
+      <c r="S108" s="61"/>
     </row>
     <row r="109" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H109" s="8"/>
@@ -5880,14 +5884,8 @@
         <f t="shared" si="38"/>
         <v>0.98742857142857132</v>
       </c>
-      <c r="P109">
-        <v>1</v>
-      </c>
-      <c r="Q109">
-        <v>1</v>
-      </c>
-      <c r="R109" s="65"/>
-      <c r="S109" s="67"/>
+      <c r="R109" s="59"/>
+      <c r="S109" s="61"/>
     </row>
     <row r="110" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H110" s="8"/>
@@ -5918,14 +5916,8 @@
         <f t="shared" si="38"/>
         <v>3.6571428571428567E-2</v>
       </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-      <c r="Q110">
-        <v>1</v>
-      </c>
-      <c r="R110" s="65"/>
-      <c r="S110" s="67"/>
+      <c r="R110" s="59"/>
+      <c r="S110" s="61"/>
     </row>
     <row r="111" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H111" s="8"/>
@@ -5956,14 +5948,8 @@
         <f t="shared" si="38"/>
         <v>0.97999999999999987</v>
       </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-      <c r="Q111">
-        <v>1</v>
-      </c>
-      <c r="R111" s="65"/>
-      <c r="S111" s="67"/>
+      <c r="R111" s="59"/>
+      <c r="S111" s="61"/>
     </row>
     <row r="112" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H112" s="8"/>
@@ -5994,14 +5980,8 @@
         <f t="shared" si="38"/>
         <v>2.914285714285714E-2</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-      <c r="Q112">
-        <v>1</v>
-      </c>
-      <c r="R112" s="65"/>
-      <c r="S112" s="67"/>
+      <c r="R112" s="59"/>
+      <c r="S112" s="61"/>
     </row>
     <row r="113" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H113" s="8"/>
@@ -6032,40 +6012,38 @@
         <f t="shared" si="38"/>
         <v>0.97257142857142842</v>
       </c>
-      <c r="P113">
-        <v>1</v>
-      </c>
-      <c r="Q113">
-        <v>1</v>
-      </c>
-      <c r="R113" s="65"/>
-      <c r="S113" s="67"/>
+      <c r="R113" s="59"/>
+      <c r="S113" s="61"/>
     </row>
     <row r="114" spans="7:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H114" s="8"/>
       <c r="I114" s="6"/>
+      <c r="O114" s="71">
+        <f>SUM(O102:O113)</f>
+        <v>6.2331428571428562</v>
+      </c>
       <c r="P114" s="41">
         <f>SUM(P102:P113)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q114" s="41">
         <f>SUM(Q102:Q113)</f>
-        <v>12</v>
-      </c>
-      <c r="R114" s="68"/>
-      <c r="S114" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="R114" s="62"/>
+      <c r="S114" s="61"/>
     </row>
     <row r="115" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H115" s="8"/>
       <c r="I115" s="6"/>
-      <c r="R115" s="67"/>
-      <c r="S115" s="67"/>
+      <c r="R115" s="61"/>
+      <c r="S115" s="61"/>
     </row>
     <row r="116" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G116" s="33" t="s">
+      <c r="G116" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="H116" s="61" t="s">
+      <c r="H116" s="55" t="s">
         <v>292</v>
       </c>
       <c r="I116" s="6" t="s">
@@ -6101,12 +6079,15 @@
       <c r="Q116">
         <v>1</v>
       </c>
-      <c r="R116" s="65" t="s">
+      <c r="R116" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S116" s="67"/>
+      <c r="S116" s="61"/>
     </row>
     <row r="117" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G117" s="65" t="s">
+        <v>349</v>
+      </c>
       <c r="H117" s="8"/>
       <c r="I117" s="6" t="s">
         <v>302</v>
@@ -6135,14 +6116,8 @@
         <f t="shared" si="44"/>
         <v>1.7748571428571427</v>
       </c>
-      <c r="P117">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>1</v>
-      </c>
-      <c r="R117" s="67"/>
-      <c r="S117" s="67"/>
+      <c r="R117" s="61"/>
+      <c r="S117" s="61"/>
     </row>
     <row r="118" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H118" s="8"/>
@@ -6173,14 +6148,8 @@
         <f t="shared" si="44"/>
         <v>1.8937142857142855</v>
       </c>
-      <c r="P118">
-        <v>1</v>
-      </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
-      <c r="R118" s="67"/>
-      <c r="S118" s="67"/>
+      <c r="R118" s="61"/>
+      <c r="S118" s="61"/>
     </row>
     <row r="119" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H119" s="8"/>
@@ -6211,14 +6180,8 @@
         <f t="shared" si="44"/>
         <v>1.5371428571428569</v>
       </c>
-      <c r="P119">
-        <v>1</v>
-      </c>
-      <c r="Q119">
-        <v>1</v>
-      </c>
-      <c r="R119" s="67"/>
-      <c r="S119" s="67"/>
+      <c r="R119" s="61"/>
+      <c r="S119" s="61"/>
     </row>
     <row r="120" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H120" s="8"/>
@@ -6249,14 +6212,8 @@
         <f t="shared" si="44"/>
         <v>1.6559999999999999</v>
       </c>
-      <c r="P120">
-        <v>1</v>
-      </c>
-      <c r="Q120">
-        <v>1</v>
-      </c>
-      <c r="R120" s="67"/>
-      <c r="S120" s="67"/>
+      <c r="R120" s="61"/>
+      <c r="S120" s="61"/>
     </row>
     <row r="121" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H121" s="8"/>
@@ -6287,14 +6244,8 @@
         <f t="shared" si="44"/>
         <v>1.2994285714285714</v>
       </c>
-      <c r="P121">
-        <v>1</v>
-      </c>
-      <c r="Q121">
-        <v>1</v>
-      </c>
-      <c r="R121" s="67"/>
-      <c r="S121" s="67"/>
+      <c r="R121" s="61"/>
+      <c r="S121" s="61"/>
     </row>
     <row r="122" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H122" s="8"/>
@@ -6325,14 +6276,8 @@
         <f t="shared" si="44"/>
         <v>1.4182857142857141</v>
       </c>
-      <c r="P122">
-        <v>1</v>
-      </c>
-      <c r="Q122">
-        <v>1</v>
-      </c>
-      <c r="R122" s="67"/>
-      <c r="S122" s="67"/>
+      <c r="R122" s="61"/>
+      <c r="S122" s="61"/>
     </row>
     <row r="123" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H123" s="8"/>
@@ -6363,14 +6308,8 @@
         <f t="shared" si="44"/>
         <v>1.0617142857142856</v>
       </c>
-      <c r="P123">
-        <v>1</v>
-      </c>
-      <c r="Q123">
-        <v>1</v>
-      </c>
-      <c r="R123" s="67"/>
-      <c r="S123" s="67"/>
+      <c r="R123" s="61"/>
+      <c r="S123" s="61"/>
     </row>
     <row r="124" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H124" s="8"/>
@@ -6401,14 +6340,8 @@
         <f t="shared" si="44"/>
         <v>1.1805714285714284</v>
       </c>
-      <c r="P124">
-        <v>1</v>
-      </c>
-      <c r="Q124">
-        <v>1</v>
-      </c>
-      <c r="R124" s="67"/>
-      <c r="S124" s="67"/>
+      <c r="R124" s="61"/>
+      <c r="S124" s="61"/>
     </row>
     <row r="125" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H125" s="8"/>
@@ -6439,14 +6372,8 @@
         <f t="shared" si="44"/>
         <v>0.82399999999999995</v>
       </c>
-      <c r="P125">
-        <v>1</v>
-      </c>
-      <c r="Q125">
-        <v>1</v>
-      </c>
-      <c r="R125" s="67"/>
-      <c r="S125" s="67"/>
+      <c r="R125" s="61"/>
+      <c r="S125" s="61"/>
     </row>
     <row r="126" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H126" s="8"/>
@@ -6477,14 +6404,8 @@
         <f t="shared" si="44"/>
         <v>0.94285714285714273</v>
       </c>
-      <c r="P126">
-        <v>1</v>
-      </c>
-      <c r="Q126">
-        <v>1</v>
-      </c>
-      <c r="R126" s="67"/>
-      <c r="S126" s="67"/>
+      <c r="R126" s="61"/>
+      <c r="S126" s="61"/>
     </row>
     <row r="127" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H127" s="8"/>
@@ -6515,14 +6436,8 @@
         <f t="shared" si="44"/>
         <v>0.58628571428571419</v>
       </c>
-      <c r="P127">
-        <v>1</v>
-      </c>
-      <c r="Q127">
-        <v>1</v>
-      </c>
-      <c r="R127" s="67"/>
-      <c r="S127" s="67"/>
+      <c r="R127" s="61"/>
+      <c r="S127" s="61"/>
     </row>
     <row r="128" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H128" s="8"/>
@@ -6553,14 +6468,8 @@
         <f t="shared" si="44"/>
         <v>0.70514285714285707</v>
       </c>
-      <c r="P128">
-        <v>1</v>
-      </c>
-      <c r="Q128">
-        <v>1</v>
-      </c>
-      <c r="R128" s="67"/>
-      <c r="S128" s="67"/>
+      <c r="R128" s="61"/>
+      <c r="S128" s="61"/>
     </row>
     <row r="129" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H129" s="8"/>
@@ -6591,14 +6500,8 @@
         <f t="shared" si="44"/>
         <v>0.34857142857142853</v>
       </c>
-      <c r="P129">
-        <v>1</v>
-      </c>
-      <c r="Q129">
-        <v>1</v>
-      </c>
-      <c r="R129" s="67"/>
-      <c r="S129" s="67"/>
+      <c r="R129" s="61"/>
+      <c r="S129" s="61"/>
     </row>
     <row r="130" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H130" s="8"/>
@@ -6629,14 +6532,8 @@
         <f t="shared" si="44"/>
         <v>0.46742857142857136</v>
       </c>
-      <c r="P130">
-        <v>1</v>
-      </c>
-      <c r="Q130">
-        <v>1</v>
-      </c>
-      <c r="R130" s="67"/>
-      <c r="S130" s="67"/>
+      <c r="R130" s="61"/>
+      <c r="S130" s="61"/>
     </row>
     <row r="131" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H131" s="8"/>
@@ -6667,14 +6564,8 @@
         <f t="shared" si="44"/>
         <v>0.11085714285714285</v>
       </c>
-      <c r="P131">
-        <v>1</v>
-      </c>
-      <c r="Q131">
-        <v>1</v>
-      </c>
-      <c r="R131" s="67"/>
-      <c r="S131" s="67"/>
+      <c r="R131" s="61"/>
+      <c r="S131" s="61"/>
     </row>
     <row r="132" spans="7:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H132" s="8"/>
@@ -6683,25 +6574,28 @@
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
       <c r="N132" s="24"/>
-      <c r="O132" s="25"/>
+      <c r="O132" s="71">
+        <f>SUM(O116:O131)</f>
+        <v>16.044</v>
+      </c>
       <c r="P132" s="41">
         <f>SUM(P116:P131)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q132" s="41">
         <f>SUM(Q116:Q131)</f>
-        <v>16</v>
-      </c>
-      <c r="R132" s="68"/>
-      <c r="S132" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="R132" s="62"/>
+      <c r="S132" s="61"/>
     </row>
     <row r="133" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H133" s="8"/>
-      <c r="R133" s="67"/>
-      <c r="S133" s="67"/>
+      <c r="R133" s="61"/>
+      <c r="S133" s="61"/>
     </row>
     <row r="134" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="64" t="s">
         <v>217</v>
       </c>
       <c r="H134" s="33" t="s">
@@ -6740,12 +6634,15 @@
       <c r="Q134">
         <v>1</v>
       </c>
-      <c r="R134" s="65" t="s">
+      <c r="R134" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S134" s="67"/>
+      <c r="S134" s="61"/>
     </row>
     <row r="135" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G135" s="65" t="s">
+        <v>349</v>
+      </c>
       <c r="H135" s="8"/>
       <c r="I135" s="6" t="s">
         <v>294</v>
@@ -6774,14 +6671,8 @@
         <f t="shared" si="50"/>
         <v>1.8119999999999998</v>
       </c>
-      <c r="P135">
-        <v>1</v>
-      </c>
-      <c r="Q135">
-        <v>1</v>
-      </c>
-      <c r="R135" s="67"/>
-      <c r="S135" s="67"/>
+      <c r="R135" s="61"/>
+      <c r="S135" s="61"/>
     </row>
     <row r="136" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H136" s="8"/>
@@ -6812,14 +6703,8 @@
         <f t="shared" si="50"/>
         <v>1.8268571428571427</v>
       </c>
-      <c r="P136">
-        <v>1</v>
-      </c>
-      <c r="Q136">
-        <v>1</v>
-      </c>
-      <c r="R136" s="67"/>
-      <c r="S136" s="67"/>
+      <c r="R136" s="61"/>
+      <c r="S136" s="61"/>
     </row>
     <row r="137" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H137" s="8"/>
@@ -6850,14 +6735,8 @@
         <f t="shared" si="50"/>
         <v>1.8417142857142854</v>
       </c>
-      <c r="P137">
-        <v>1</v>
-      </c>
-      <c r="Q137">
-        <v>1</v>
-      </c>
-      <c r="R137" s="67"/>
-      <c r="S137" s="67"/>
+      <c r="R137" s="61"/>
+      <c r="S137" s="61"/>
     </row>
     <row r="138" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H138" s="8"/>
@@ -6888,14 +6767,8 @@
         <f t="shared" si="50"/>
         <v>1.8565714285714283</v>
       </c>
-      <c r="P138">
-        <v>1</v>
-      </c>
-      <c r="Q138">
-        <v>1</v>
-      </c>
-      <c r="R138" s="67"/>
-      <c r="S138" s="67"/>
+      <c r="R138" s="61"/>
+      <c r="S138" s="61"/>
     </row>
     <row r="139" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H139" s="8"/>
@@ -6926,14 +6799,8 @@
         <f t="shared" si="50"/>
         <v>1.8714285714285712</v>
       </c>
-      <c r="P139">
-        <v>1</v>
-      </c>
-      <c r="Q139">
-        <v>1</v>
-      </c>
-      <c r="R139" s="67"/>
-      <c r="S139" s="67"/>
+      <c r="R139" s="61"/>
+      <c r="S139" s="61"/>
     </row>
     <row r="140" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H140" s="8"/>
@@ -6964,14 +6831,8 @@
         <f t="shared" si="50"/>
         <v>1.8862857142857141</v>
       </c>
-      <c r="P140">
-        <v>1</v>
-      </c>
-      <c r="Q140">
-        <v>1</v>
-      </c>
-      <c r="R140" s="67"/>
-      <c r="S140" s="67"/>
+      <c r="R140" s="61"/>
+      <c r="S140" s="61"/>
     </row>
     <row r="141" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H141" s="8"/>
@@ -7002,14 +6863,8 @@
         <f t="shared" si="50"/>
         <v>1.901142857142857</v>
       </c>
-      <c r="P141">
-        <v>1</v>
-      </c>
-      <c r="Q141">
-        <v>1</v>
-      </c>
-      <c r="R141" s="67"/>
-      <c r="S141" s="67"/>
+      <c r="R141" s="61"/>
+      <c r="S141" s="61"/>
     </row>
     <row r="142" spans="7:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H142" s="8"/>
@@ -7018,25 +6873,28 @@
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
       <c r="N142" s="24"/>
-      <c r="O142" s="25"/>
+      <c r="O142" s="71">
+        <f>SUM(O134:O141)</f>
+        <v>14.793142857142856</v>
+      </c>
       <c r="P142" s="41">
         <f>SUM(P134:P141)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q142" s="41">
         <f>SUM(Q134:Q141)</f>
-        <v>8</v>
-      </c>
-      <c r="R142" s="68"/>
-      <c r="S142" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="R142" s="62"/>
+      <c r="S142" s="61"/>
     </row>
     <row r="143" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H143" s="8"/>
-      <c r="R143" s="67"/>
-      <c r="S143" s="67"/>
+      <c r="R143" s="61"/>
+      <c r="S143" s="61"/>
     </row>
     <row r="144" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G144" t="s">
+      <c r="G144" s="14" t="s">
         <v>225</v>
       </c>
       <c r="H144" s="33" t="s">
@@ -7075,10 +6933,10 @@
       <c r="Q144">
         <v>1</v>
       </c>
-      <c r="R144" s="67" t="s">
+      <c r="R144" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="S144" s="52" t="s">
+      <c r="S144" s="51" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7089,11 +6947,13 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
-      <c r="G145" s="48"/>
-      <c r="H145" s="60" t="s">
+      <c r="G145" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="H145" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="I145" s="49" t="s">
+      <c r="I145" s="48" t="s">
         <v>268</v>
       </c>
       <c r="J145" s="6" t="str">
@@ -7120,14 +6980,8 @@
         <f t="shared" si="56"/>
         <v>0.47485714285714281</v>
       </c>
-      <c r="P145">
-        <v>1</v>
-      </c>
-      <c r="Q145">
-        <v>1</v>
-      </c>
-      <c r="R145" s="67"/>
-      <c r="S145" s="67"/>
+      <c r="R145" s="61"/>
+      <c r="S145" s="61"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
@@ -7137,7 +6991,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="47"/>
-      <c r="I146" s="49" t="s">
+      <c r="I146" s="48" t="s">
         <v>269</v>
       </c>
       <c r="J146" s="6" t="str">
@@ -7164,14 +7018,8 @@
         <f t="shared" si="56"/>
         <v>0.45999999999999996</v>
       </c>
-      <c r="P146">
-        <v>1</v>
-      </c>
-      <c r="Q146">
-        <v>1</v>
-      </c>
-      <c r="R146" s="67"/>
-      <c r="S146" s="67"/>
+      <c r="R146" s="61"/>
+      <c r="S146" s="61"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
@@ -7182,7 +7030,7 @@
       <c r="F147" s="8"/>
       <c r="G147" s="45"/>
       <c r="H147" s="45"/>
-      <c r="I147" s="50">
+      <c r="I147" s="49">
         <v>3901</v>
       </c>
       <c r="J147" s="6" t="str">
@@ -7209,14 +7057,8 @@
         <f t="shared" si="56"/>
         <v>0.44514285714285712</v>
       </c>
-      <c r="P147">
-        <v>1</v>
-      </c>
-      <c r="Q147">
-        <v>1</v>
-      </c>
-      <c r="R147" s="67"/>
-      <c r="S147" s="67"/>
+      <c r="R147" s="61"/>
+      <c r="S147" s="61"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
@@ -7227,7 +7069,7 @@
       <c r="F148" s="8"/>
       <c r="G148" s="46"/>
       <c r="H148" s="47"/>
-      <c r="I148" s="49">
+      <c r="I148" s="48">
         <v>3701</v>
       </c>
       <c r="J148" s="6" t="str">
@@ -7254,14 +7096,8 @@
         <f t="shared" si="56"/>
         <v>0.43028571428571422</v>
       </c>
-      <c r="P148">
-        <v>1</v>
-      </c>
-      <c r="Q148">
-        <v>1</v>
-      </c>
-      <c r="R148" s="67"/>
-      <c r="S148" s="67"/>
+      <c r="R148" s="61"/>
+      <c r="S148" s="61"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
@@ -7272,7 +7108,7 @@
       <c r="F149" s="8"/>
       <c r="G149" s="45"/>
       <c r="H149" s="45"/>
-      <c r="I149" s="49">
+      <c r="I149" s="48">
         <v>3501</v>
       </c>
       <c r="J149" s="6" t="str">
@@ -7299,14 +7135,8 @@
         <f t="shared" si="56"/>
         <v>0.41542857142857137</v>
       </c>
-      <c r="P149">
-        <v>1</v>
-      </c>
-      <c r="Q149">
-        <v>1</v>
-      </c>
-      <c r="R149" s="67"/>
-      <c r="S149" s="67"/>
+      <c r="R149" s="61"/>
+      <c r="S149" s="61"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
@@ -7316,7 +7146,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="H150" s="8"/>
-      <c r="I150" s="51">
+      <c r="I150" s="50">
         <v>3301</v>
       </c>
       <c r="J150" s="6" t="str">
@@ -7343,18 +7173,12 @@
         <f t="shared" si="56"/>
         <v>0.40057142857142852</v>
       </c>
-      <c r="P150">
-        <v>1</v>
-      </c>
-      <c r="Q150">
-        <v>1</v>
-      </c>
-      <c r="R150" s="67"/>
-      <c r="S150" s="67"/>
+      <c r="R150" s="61"/>
+      <c r="S150" s="61"/>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H151" s="8"/>
-      <c r="I151" s="51">
+      <c r="I151" s="50">
         <v>3101</v>
       </c>
       <c r="J151" s="6" t="str">
@@ -7381,14 +7205,8 @@
         <f t="shared" si="56"/>
         <v>0.38571428571428568</v>
       </c>
-      <c r="P151">
-        <v>1</v>
-      </c>
-      <c r="Q151">
-        <v>1</v>
-      </c>
-      <c r="R151" s="67"/>
-      <c r="S151" s="67"/>
+      <c r="R151" s="61"/>
+      <c r="S151" s="61"/>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H152" s="8"/>
@@ -7419,14 +7237,8 @@
         <f t="shared" si="56"/>
         <v>0.37085714285714283</v>
       </c>
-      <c r="P152">
-        <v>1</v>
-      </c>
-      <c r="Q152">
-        <v>1</v>
-      </c>
-      <c r="R152" s="67"/>
-      <c r="S152" s="67"/>
+      <c r="R152" s="61"/>
+      <c r="S152" s="61"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H153" s="8"/>
@@ -7457,18 +7269,12 @@
         <f t="shared" si="56"/>
         <v>0.35599999999999998</v>
       </c>
-      <c r="P153">
-        <v>1</v>
-      </c>
-      <c r="Q153">
-        <v>1</v>
-      </c>
-      <c r="R153" s="67"/>
-      <c r="S153" s="67"/>
+      <c r="R153" s="61"/>
+      <c r="S153" s="61"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H154" s="8"/>
-      <c r="I154" s="51" t="s">
+      <c r="I154" s="50" t="s">
         <v>272</v>
       </c>
       <c r="J154" s="6" t="str">
@@ -7495,18 +7301,12 @@
         <f t="shared" si="56"/>
         <v>0.34114285714285708</v>
       </c>
-      <c r="P154">
-        <v>1</v>
-      </c>
-      <c r="Q154">
-        <v>1</v>
-      </c>
-      <c r="R154" s="67"/>
-      <c r="S154" s="67"/>
+      <c r="R154" s="61"/>
+      <c r="S154" s="61"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H155" s="8"/>
-      <c r="I155" s="51">
+      <c r="I155" s="50">
         <v>2901</v>
       </c>
       <c r="J155" s="6" t="str">
@@ -7533,18 +7333,12 @@
         <f t="shared" si="56"/>
         <v>0.32628571428571423</v>
       </c>
-      <c r="P155">
-        <v>1</v>
-      </c>
-      <c r="Q155">
-        <v>1</v>
-      </c>
-      <c r="R155" s="67"/>
-      <c r="S155" s="67"/>
+      <c r="R155" s="61"/>
+      <c r="S155" s="61"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H156" s="8"/>
-      <c r="I156" s="51">
+      <c r="I156" s="50">
         <v>2701</v>
       </c>
       <c r="J156" s="6" t="str">
@@ -7571,18 +7365,12 @@
         <f t="shared" si="56"/>
         <v>0.31142857142857139</v>
       </c>
-      <c r="P156">
-        <v>1</v>
-      </c>
-      <c r="Q156">
-        <v>1</v>
-      </c>
-      <c r="R156" s="67"/>
-      <c r="S156" s="67"/>
+      <c r="R156" s="61"/>
+      <c r="S156" s="61"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H157" s="8"/>
-      <c r="I157" s="51">
+      <c r="I157" s="50">
         <v>2501</v>
       </c>
       <c r="J157" s="6" t="str">
@@ -7609,18 +7397,12 @@
         <f t="shared" si="56"/>
         <v>0.29657142857142854</v>
       </c>
-      <c r="P157">
-        <v>1</v>
-      </c>
-      <c r="Q157">
-        <v>1</v>
-      </c>
-      <c r="R157" s="67"/>
-      <c r="S157" s="67"/>
+      <c r="R157" s="61"/>
+      <c r="S157" s="61"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H158" s="8"/>
-      <c r="I158" s="51">
+      <c r="I158" s="50">
         <v>2301</v>
       </c>
       <c r="J158" s="6" t="str">
@@ -7647,18 +7429,12 @@
         <f t="shared" si="56"/>
         <v>0.28171428571428569</v>
       </c>
-      <c r="P158">
-        <v>1</v>
-      </c>
-      <c r="Q158">
-        <v>1</v>
-      </c>
-      <c r="R158" s="67"/>
-      <c r="S158" s="67"/>
+      <c r="R158" s="61"/>
+      <c r="S158" s="61"/>
     </row>
     <row r="159" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H159" s="8"/>
-      <c r="I159" s="51">
+      <c r="I159" s="50">
         <v>2101</v>
       </c>
       <c r="J159" s="6" t="str">
@@ -7685,14 +7461,8 @@
         <f t="shared" si="56"/>
         <v>0.26685714285714285</v>
       </c>
-      <c r="P159">
-        <v>1</v>
-      </c>
-      <c r="Q159">
-        <v>1</v>
-      </c>
-      <c r="R159" s="67"/>
-      <c r="S159" s="67"/>
+      <c r="R159" s="61"/>
+      <c r="S159" s="61"/>
     </row>
     <row r="160" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H160" s="8"/>
@@ -7701,17 +7471,20 @@
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
       <c r="N160" s="24"/>
-      <c r="O160" s="25"/>
+      <c r="O160" s="71">
+        <f>SUM(O144:O159)</f>
+        <v>6.0525714285714285</v>
+      </c>
       <c r="P160" s="41">
         <f>SUM(P144:P159)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q160" s="41">
         <f>SUM(Q144:Q159)</f>
-        <v>16</v>
-      </c>
-      <c r="R160" s="68"/>
-      <c r="S160" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="R160" s="62"/>
+      <c r="S160" s="61"/>
     </row>
     <row r="161" spans="8:19" x14ac:dyDescent="0.25">
       <c r="J161" s="6"/>
@@ -7722,8 +7495,8 @@
       <c r="O161" s="25"/>
       <c r="P161" s="35"/>
       <c r="Q161" s="35"/>
-      <c r="R161" s="68"/>
-      <c r="S161" s="67"/>
+      <c r="R161" s="62"/>
+      <c r="S161" s="61"/>
     </row>
     <row r="162" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H162" s="8" t="s">
@@ -7753,7 +7526,7 @@
         <v>3968.2539682539682</v>
       </c>
       <c r="O162" s="25">
-        <f t="shared" ref="O162:O170" si="62">$D$2*M162</f>
+        <f t="shared" ref="O162:O169" si="62">$D$2*M162</f>
         <v>0.25199999999999995</v>
       </c>
       <c r="P162">
@@ -7762,8 +7535,8 @@
       <c r="Q162">
         <v>1</v>
       </c>
-      <c r="R162" s="68"/>
-      <c r="S162" s="67"/>
+      <c r="R162" s="62"/>
+      <c r="S162" s="61"/>
     </row>
     <row r="163" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H163" s="8"/>
@@ -7794,14 +7567,8 @@
         <f t="shared" si="62"/>
         <v>0.23714285714285713</v>
       </c>
-      <c r="P163">
-        <v>1</v>
-      </c>
-      <c r="Q163">
-        <v>1</v>
-      </c>
-      <c r="R163" s="68"/>
-      <c r="S163" s="67"/>
+      <c r="R163" s="62"/>
+      <c r="S163" s="61"/>
     </row>
     <row r="164" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H164" s="8"/>
@@ -7832,14 +7599,8 @@
         <f t="shared" si="62"/>
         <v>0.22228571428571425</v>
       </c>
-      <c r="P164">
-        <v>1</v>
-      </c>
-      <c r="Q164">
-        <v>1</v>
-      </c>
-      <c r="R164" s="68"/>
-      <c r="S164" s="67"/>
+      <c r="R164" s="62"/>
+      <c r="S164" s="61"/>
     </row>
     <row r="165" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H165" s="8"/>
@@ -7870,14 +7631,8 @@
         <f t="shared" si="62"/>
         <v>0.20742857142857141</v>
       </c>
-      <c r="P165">
-        <v>1</v>
-      </c>
-      <c r="Q165">
-        <v>1</v>
-      </c>
-      <c r="R165" s="68"/>
-      <c r="S165" s="67"/>
+      <c r="R165" s="62"/>
+      <c r="S165" s="61"/>
     </row>
     <row r="166" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H166" s="8"/>
@@ -7908,14 +7663,8 @@
         <f t="shared" si="62"/>
         <v>0.19257142857142856</v>
       </c>
-      <c r="P166">
-        <v>1</v>
-      </c>
-      <c r="Q166">
-        <v>1</v>
-      </c>
-      <c r="R166" s="68"/>
-      <c r="S166" s="67"/>
+      <c r="R166" s="62"/>
+      <c r="S166" s="61"/>
     </row>
     <row r="167" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H167" s="8"/>
@@ -7946,14 +7695,8 @@
         <f t="shared" si="62"/>
         <v>0.17771428571428569</v>
       </c>
-      <c r="P167">
-        <v>1</v>
-      </c>
-      <c r="Q167">
-        <v>1</v>
-      </c>
-      <c r="R167" s="68"/>
-      <c r="S167" s="67"/>
+      <c r="R167" s="62"/>
+      <c r="S167" s="61"/>
     </row>
     <row r="168" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H168" s="8"/>
@@ -7984,14 +7727,8 @@
         <f t="shared" si="62"/>
         <v>0.16285714285714284</v>
       </c>
-      <c r="P168">
-        <v>1</v>
-      </c>
-      <c r="Q168">
-        <v>1</v>
-      </c>
-      <c r="R168" s="68"/>
-      <c r="S168" s="67"/>
+      <c r="R168" s="62"/>
+      <c r="S168" s="61"/>
     </row>
     <row r="169" spans="8:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H169" s="8"/>
@@ -8022,14 +7759,8 @@
         <f t="shared" si="62"/>
         <v>0.14799999999999999</v>
       </c>
-      <c r="P169">
-        <v>1</v>
-      </c>
-      <c r="Q169">
-        <v>1</v>
-      </c>
-      <c r="R169" s="68"/>
-      <c r="S169" s="67"/>
+      <c r="R169" s="62"/>
+      <c r="S169" s="61"/>
     </row>
     <row r="170" spans="8:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H170" s="8"/>
@@ -8038,17 +7769,20 @@
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
       <c r="N170" s="24"/>
-      <c r="O170" s="25"/>
+      <c r="O170" s="71">
+        <f>SUM(O162:O169)</f>
+        <v>1.5999999999999996</v>
+      </c>
       <c r="P170" s="41">
         <f>SUM(P162:P169)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q170" s="41">
         <f>SUM(Q162:Q169)</f>
-        <v>8</v>
-      </c>
-      <c r="R170" s="68"/>
-      <c r="S170" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="R170" s="62"/>
+      <c r="S170" s="61"/>
     </row>
     <row r="171" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H171" s="8"/>
@@ -8060,14 +7794,14 @@
       <c r="O171" s="25"/>
       <c r="P171" s="35"/>
       <c r="Q171" s="35"/>
-      <c r="R171" s="68"/>
-      <c r="S171" s="67"/>
+      <c r="R171" s="62"/>
+      <c r="S171" s="61"/>
     </row>
     <row r="172" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H172" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="I172" s="62" t="s">
+      <c r="I172" s="56" t="s">
         <v>341</v>
       </c>
       <c r="J172" s="6" t="str">
@@ -8100,12 +7834,12 @@
       <c r="Q172">
         <v>1</v>
       </c>
-      <c r="R172" s="68"/>
-      <c r="S172" s="67"/>
+      <c r="R172" s="62"/>
+      <c r="S172" s="61"/>
     </row>
     <row r="173" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H173" s="8"/>
-      <c r="I173" s="62" t="s">
+      <c r="I173" s="56" t="s">
         <v>342</v>
       </c>
       <c r="J173" s="6" t="str">
@@ -8132,18 +7866,12 @@
         <f t="shared" si="68"/>
         <v>0.11828571428571427</v>
       </c>
-      <c r="P173">
-        <v>1</v>
-      </c>
-      <c r="Q173">
-        <v>1</v>
-      </c>
-      <c r="R173" s="68"/>
-      <c r="S173" s="67"/>
+      <c r="R173" s="62"/>
+      <c r="S173" s="61"/>
     </row>
     <row r="174" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H174" s="8"/>
-      <c r="I174" s="62" t="s">
+      <c r="I174" s="56" t="s">
         <v>343</v>
       </c>
       <c r="J174" s="6" t="str">
@@ -8170,18 +7898,12 @@
         <f t="shared" si="68"/>
         <v>0.10342857142857141</v>
       </c>
-      <c r="P174">
-        <v>1</v>
-      </c>
-      <c r="Q174">
-        <v>1</v>
-      </c>
-      <c r="R174" s="68"/>
-      <c r="S174" s="67"/>
+      <c r="R174" s="62"/>
+      <c r="S174" s="61"/>
     </row>
     <row r="175" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H175" s="8"/>
-      <c r="I175" s="62">
+      <c r="I175" s="56">
         <v>901</v>
       </c>
       <c r="J175" s="6" t="str">
@@ -8208,18 +7930,12 @@
         <f t="shared" si="68"/>
         <v>8.8571428571428565E-2</v>
       </c>
-      <c r="P175">
-        <v>1</v>
-      </c>
-      <c r="Q175">
-        <v>1</v>
-      </c>
-      <c r="R175" s="68"/>
-      <c r="S175" s="67"/>
+      <c r="R175" s="62"/>
+      <c r="S175" s="61"/>
     </row>
     <row r="176" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H176" s="8"/>
-      <c r="I176" s="62">
+      <c r="I176" s="56">
         <v>701</v>
       </c>
       <c r="J176" s="6" t="str">
@@ -8246,18 +7962,12 @@
         <f t="shared" si="68"/>
         <v>7.3714285714285704E-2</v>
       </c>
-      <c r="P176">
-        <v>1</v>
-      </c>
-      <c r="Q176">
-        <v>1</v>
-      </c>
-      <c r="R176" s="68"/>
-      <c r="S176" s="67"/>
+      <c r="R176" s="62"/>
+      <c r="S176" s="61"/>
     </row>
     <row r="177" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H177" s="8"/>
-      <c r="I177" s="62">
+      <c r="I177" s="56">
         <v>501</v>
       </c>
       <c r="J177" s="6" t="str">
@@ -8284,18 +7994,12 @@
         <f t="shared" si="68"/>
         <v>5.8857142857142851E-2</v>
       </c>
-      <c r="P177">
-        <v>1</v>
-      </c>
-      <c r="Q177">
-        <v>1</v>
-      </c>
-      <c r="R177" s="68"/>
-      <c r="S177" s="67"/>
+      <c r="R177" s="62"/>
+      <c r="S177" s="61"/>
     </row>
     <row r="178" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H178" s="8"/>
-      <c r="I178" s="63">
+      <c r="I178" s="57">
         <v>301</v>
       </c>
       <c r="J178" s="6" t="str">
@@ -8322,18 +8026,12 @@
         <f t="shared" si="68"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="P178">
-        <v>1</v>
-      </c>
-      <c r="Q178">
-        <v>1</v>
-      </c>
-      <c r="R178" s="68"/>
-      <c r="S178" s="67"/>
+      <c r="R178" s="62"/>
+      <c r="S178" s="61"/>
     </row>
     <row r="179" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H179" s="8"/>
-      <c r="I179" s="63">
+      <c r="I179" s="57">
         <v>101</v>
       </c>
       <c r="J179" s="6" t="str">
@@ -8360,14 +8058,8 @@
         <f t="shared" si="68"/>
         <v>2.914285714285714E-2</v>
       </c>
-      <c r="P179">
-        <v>1</v>
-      </c>
-      <c r="Q179">
-        <v>1</v>
-      </c>
-      <c r="R179" s="68"/>
-      <c r="S179" s="67"/>
+      <c r="R179" s="62"/>
+      <c r="S179" s="61"/>
     </row>
     <row r="180" spans="7:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H180" s="8"/>
@@ -8376,17 +8068,20 @@
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
       <c r="N180" s="24"/>
-      <c r="O180" s="25"/>
+      <c r="O180" s="71">
+        <f>SUM(O172:O179)</f>
+        <v>0.64914285714285713</v>
+      </c>
       <c r="P180" s="41">
         <f>SUM(P172:P179)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q180" s="41">
         <f>SUM(Q172:Q179)</f>
-        <v>8</v>
-      </c>
-      <c r="R180" s="68"/>
-      <c r="S180" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="R180" s="62"/>
+      <c r="S180" s="61"/>
     </row>
     <row r="181" spans="7:19" x14ac:dyDescent="0.25">
       <c r="H181" s="8"/>
@@ -8401,21 +8096,21 @@
       <c r="R181" s="35"/>
     </row>
     <row r="182" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G182" s="56" t="s">
+      <c r="G182" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="H182" s="56"/>
-      <c r="I182" s="56"/>
-      <c r="J182" s="56"/>
-      <c r="K182" s="56"/>
-      <c r="L182" s="56"/>
-      <c r="M182" s="56"/>
-      <c r="N182" s="56"/>
-      <c r="O182" s="56"/>
-      <c r="P182" s="56"/>
-      <c r="Q182" s="56"/>
-      <c r="R182" s="56"/>
-      <c r="S182" s="56"/>
+      <c r="H182" s="68"/>
+      <c r="I182" s="68"/>
+      <c r="J182" s="68"/>
+      <c r="K182" s="68"/>
+      <c r="L182" s="68"/>
+      <c r="M182" s="68"/>
+      <c r="N182" s="68"/>
+      <c r="O182" s="68"/>
+      <c r="P182" s="68"/>
+      <c r="Q182" s="68"/>
+      <c r="R182" s="68"/>
+      <c r="S182" s="68"/>
     </row>
     <row r="183" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G183" s="29" t="s">
@@ -8462,7 +8157,7 @@
       <c r="G184" t="s">
         <v>240</v>
       </c>
-      <c r="H184" s="60" t="s">
+      <c r="H184" s="54" t="s">
         <v>278</v>
       </c>
       <c r="I184" s="26" t="s">
@@ -8498,15 +8193,15 @@
       <c r="Q184">
         <v>1</v>
       </c>
-      <c r="R184" s="65" t="s">
+      <c r="R184" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="S184" s="67"/>
+      <c r="S184" s="61"/>
     </row>
     <row r="185" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G185" s="45"/>
       <c r="H185" s="45"/>
-      <c r="I185" s="49"/>
+      <c r="I185" s="48"/>
       <c r="J185" s="6"/>
       <c r="K185" s="40"/>
       <c r="L185" s="6"/>
@@ -8586,18 +8281,18 @@
       </c>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8717,12 +8412,12 @@
       <c r="AF3" t="s">
         <v>169</v>
       </c>
-      <c r="AH3" s="58" t="s">
+      <c r="AH3" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -9099,7 +8794,7 @@
         <f>X10-X11</f>
         <v>1642.0838445514657</v>
       </c>
-      <c r="Y12" s="59" t="str">
+      <c r="Y12" s="53" t="str">
         <f>DEC2HEX(X12)</f>
         <v>66A</v>
       </c>
